--- a/docs/PPG/Blog_externos.xlsx
+++ b/docs/PPG/Blog_externos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8E530E-B427-9D48-87F0-17576FD4A51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE54310-1C25-3D4B-B0A3-CCE84C838056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Publicação</t>
   </si>
@@ -177,7 +177,10 @@
     <t>Simpósio abordou atuação do fisioterapeuta na dor do paciente</t>
   </si>
   <si>
-    <t>07/102022</t>
+    <t>STORIES THAT INSPIRE … WITH GUSTAVO TELLES</t>
+  </si>
+  <si>
+    <t>https://blogs.bmj.com/bmjopensem/2022/11/22/stories-that-inspire-with-gustavo-telles/</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2737D954-942D-7D47-B162-11BE628278CF}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,19 +580,31 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="4">
+        <v>44887</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>44841</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{2B8F926B-B369-D446-AE6A-1A6D21318EEA}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{2B8F926B-B369-D446-AE6A-1A6D21318EEA}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{3C353235-8DAB-1F42-87F9-8894F5B95111}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
